--- a/biology/Biochimie/C-glycosylation/C-glycosylation.xlsx
+++ b/biology/Biochimie/C-glycosylation/C-glycosylation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La C-glycosylation est une opération biochimique consistant en l'addition sur un carbone, de glucides aux chaînes peptidiques. Plus précisément en l'adjonction d'un mannose par une liaison au carbone du noyau indole d'un tryptophane de la protéine. Sont concernés, dans l'attente de successeurs, l'interleukine 12, la ribonucléase 2, les fraction C6, C7, C8, C9 du complément.
 </t>
